--- a/SPEKTRAL_ANALİZ/EXCELLER/marmaris_tudes_ssh_model.xlsx
+++ b/SPEKTRAL_ANALİZ/EXCELLER/marmaris_tudes_ssh_model.xlsx
@@ -465,7 +465,7 @@
         <v>0.1271883680555556</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1509773266135019</v>
+        <v>0.1511002377521504</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>0.1636999327956989</v>
       </c>
       <c r="D3" t="n">
-        <v>0.202065432031052</v>
+        <v>0.2021548190765464</v>
       </c>
     </row>
     <row r="4">
@@ -493,7 +493,7 @@
         <v>0.1755817652329749</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2209619393621641</v>
+        <v>0.2221039395992622</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         <v>0.1732359953703703</v>
       </c>
       <c r="D5" t="n">
-        <v>0.205178143225976</v>
+        <v>0.2068485928622127</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         <v>40087</v>
       </c>
       <c r="C6" t="n">
-        <v>0.17309375</v>
+        <v>0.1730689964157706</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1781607156802416</v>
+        <v>0.1787234595078577</v>
       </c>
     </row>
     <row r="7">
@@ -532,10 +532,10 @@
         <v>40118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1738042824074074</v>
+        <v>0.1736392260466989</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1637754465179472</v>
+        <v>0.1622452415719036</v>
       </c>
     </row>
     <row r="8">
@@ -546,10 +546,10 @@
         <v>40148</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3086980286738351</v>
+        <v>0.2923603867763618</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1632696060342619</v>
+        <v>0.1605427534434385</v>
       </c>
     </row>
     <row r="9">
@@ -560,10 +560,10 @@
         <v>40179</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2398995295698925</v>
+        <v>0.2327555244220742</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1575286646872291</v>
+        <v>0.1557849861137301</v>
       </c>
     </row>
     <row r="10">
@@ -574,10 +574,10 @@
         <v>40210</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2312387152777778</v>
+        <v>0.2284354403899241</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1314317587125465</v>
+        <v>0.1322260177062922</v>
       </c>
     </row>
     <row r="11">
@@ -588,10 +588,10 @@
         <v>40238</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08740120967741935</v>
+        <v>0.09719935290333223</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09454613148935893</v>
+        <v>0.09742479905609584</v>
       </c>
     </row>
     <row r="12">
@@ -602,10 +602,10 @@
         <v>40269</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0228375</v>
+        <v>0.02391719877344877</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07597267367399999</v>
+        <v>0.07895331140009057</v>
       </c>
     </row>
     <row r="13">
@@ -619,7 +619,7 @@
         <v>0.08062018369175626</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09731462018928883</v>
+        <v>0.09874157020509397</v>
       </c>
     </row>
     <row r="14">
@@ -633,7 +633,7 @@
         <v>0.1817450332125604</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1502461627417739</v>
+        <v>0.1502008167051323</v>
       </c>
     </row>
     <row r="15">
@@ -647,7 +647,7 @@
         <v>0.1778237007168459</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2013342681593239</v>
+        <v>0.2012553980295283</v>
       </c>
     </row>
     <row r="16">
@@ -658,10 +658,10 @@
         <v>40391</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2272251344086021</v>
+        <v>0.2271396729390681</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2202307754904361</v>
+        <v>0.2212045185522442</v>
       </c>
     </row>
     <row r="17">
@@ -672,10 +672,10 @@
         <v>40422</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2268186342592592</v>
+        <v>0.2267828703703704</v>
       </c>
       <c r="D17" t="n">
-        <v>0.204446979354248</v>
+        <v>0.2059491718151947</v>
       </c>
     </row>
     <row r="18">
@@ -686,10 +686,10 @@
         <v>40452</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1767642249103943</v>
+        <v>0.1767326388888889</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1774295518085136</v>
+        <v>0.1778240384608397</v>
       </c>
     </row>
     <row r="19">
@@ -700,10 +700,10 @@
         <v>40483</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1941143518518519</v>
+        <v>0.193984375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1630442826462191</v>
+        <v>0.1613458205248856</v>
       </c>
     </row>
     <row r="20">
@@ -714,10 +714,10 @@
         <v>40513</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2761373207885305</v>
+        <v>0.2693426398953301</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1625384421625339</v>
+        <v>0.1596433323964205</v>
       </c>
     </row>
     <row r="21">
@@ -728,10 +728,10 @@
         <v>40544</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1474139784946236</v>
+        <v>0.1473993055555556</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1567975008155011</v>
+        <v>0.1548855650667121</v>
       </c>
     </row>
     <row r="22">
@@ -742,10 +742,10 @@
         <v>40575</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1217594246031746</v>
+        <v>0.1208912273242631</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1307005948408184</v>
+        <v>0.1313265966592742</v>
       </c>
     </row>
     <row r="23">
@@ -756,10 +756,10 @@
         <v>40603</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001782482078853048</v>
+        <v>0.02688720103974416</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0938149676176309</v>
+        <v>0.09652537800907779</v>
       </c>
     </row>
     <row r="24">
@@ -770,10 +770,10 @@
         <v>40634</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03107013888888889</v>
+        <v>0.03114212962962963</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07524150980227196</v>
+        <v>0.07805389035307254</v>
       </c>
     </row>
     <row r="25">
@@ -787,7 +787,7 @@
         <v>0.09317585125448029</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09658345631756071</v>
+        <v>0.09784214915807582</v>
       </c>
     </row>
     <row r="26">
@@ -801,7 +801,7 @@
         <v>0.1375788194444444</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1495149988700458</v>
+        <v>0.1493013956581143</v>
       </c>
     </row>
     <row r="27">
@@ -812,10 +812,10 @@
         <v>40725</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2108277329749104</v>
+        <v>0.2107945788530466</v>
       </c>
       <c r="D27" t="n">
-        <v>0.200603104287596</v>
+        <v>0.2003559769825103</v>
       </c>
     </row>
     <row r="28">
@@ -826,10 +826,10 @@
         <v>40756</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2351230958781362</v>
+        <v>0.2349519489247312</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2194996116187081</v>
+        <v>0.2203050975052261</v>
       </c>
     </row>
     <row r="29">
@@ -840,10 +840,10 @@
         <v>40787</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2457215277777778</v>
+        <v>0.2456923611111111</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2037158154825199</v>
+        <v>0.2050497507681767</v>
       </c>
     </row>
     <row r="30">
@@ -857,7 +857,7 @@
         <v>0.1410879096262161</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1766983879367856</v>
+        <v>0.1769246174138216</v>
       </c>
     </row>
     <row r="31">
@@ -868,10 +868,10 @@
         <v>40848</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09506770833333333</v>
+        <v>0.09533208031400967</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1623131187744911</v>
+        <v>0.1604463994778675</v>
       </c>
     </row>
     <row r="32">
@@ -882,10 +882,10 @@
         <v>40878</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0644717741935484</v>
+        <v>0.0648965700128919</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1618072782908058</v>
+        <v>0.1587439113494024</v>
       </c>
     </row>
     <row r="33">
@@ -896,10 +896,10 @@
         <v>40909</v>
       </c>
       <c r="C33" t="n">
-        <v>0.124732414874552</v>
+        <v>0.1246748431899642</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1560663369437731</v>
+        <v>0.153986144019694</v>
       </c>
     </row>
     <row r="34">
@@ -910,10 +910,10 @@
         <v>40940</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04352957375478927</v>
+        <v>0.05039591181300106</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1299694309690905</v>
+        <v>0.1304271756122563</v>
       </c>
     </row>
     <row r="35">
@@ -924,10 +924,10 @@
         <v>40969</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.01631317204301075</v>
+        <v>-0.007108084393552389</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09308380374590278</v>
+        <v>0.09562595696205967</v>
       </c>
     </row>
     <row r="36">
@@ -938,10 +938,10 @@
         <v>41000</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1316144675925926</v>
+        <v>0.1317760146757429</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07451034593054394</v>
+        <v>0.07715446930605452</v>
       </c>
     </row>
     <row r="37">
@@ -955,7 +955,7 @@
         <v>0.1306723790322581</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09585229244583282</v>
+        <v>0.09694272811105789</v>
       </c>
     </row>
     <row r="38">
@@ -969,7 +969,7 @@
         <v>0.08471527777777778</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1487838349983177</v>
+        <v>0.1484019746110962</v>
       </c>
     </row>
     <row r="39">
@@ -983,7 +983,7 @@
         <v>0.1975613799283154</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1998719404158678</v>
+        <v>0.1994565559354922</v>
       </c>
     </row>
     <row r="40">
@@ -994,10 +994,10 @@
         <v>41122</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2499289874551971</v>
+        <v>0.2498467741935484</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2187684477469801</v>
+        <v>0.2194056764582081</v>
       </c>
     </row>
     <row r="41">
@@ -1011,7 +1011,7 @@
         <v>0.1741872685185185</v>
       </c>
       <c r="D41" t="n">
-        <v>0.202984651610792</v>
+        <v>0.2041503297211587</v>
       </c>
     </row>
     <row r="42">
@@ -1022,10 +1022,10 @@
         <v>41183</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2118528225806451</v>
+        <v>0.2118265008960573</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1759672240650575</v>
+        <v>0.1760251963668035</v>
       </c>
     </row>
     <row r="43">
@@ -1036,10 +1036,10 @@
         <v>41214</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1558215277777778</v>
+        <v>0.1556996527777778</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1615819549027631</v>
+        <v>0.1595469784308495</v>
       </c>
     </row>
     <row r="44">
@@ -1050,10 +1050,10 @@
         <v>41244</v>
       </c>
       <c r="C44" t="n">
-        <v>0.229536626344086</v>
+        <v>0.2292580304269908</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1610761144190778</v>
+        <v>0.1578444903023843</v>
       </c>
     </row>
     <row r="45">
@@ -1064,10 +1064,10 @@
         <v>41275</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2166591621863799</v>
+        <v>0.2036248055455347</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1553351730720451</v>
+        <v>0.153086722972676</v>
       </c>
     </row>
     <row r="46">
@@ -1078,10 +1078,10 @@
         <v>41306</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1552650049603175</v>
+        <v>0.1552264384920635</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1292382670973625</v>
+        <v>0.1295277545652382</v>
       </c>
     </row>
     <row r="47">
@@ -1092,10 +1092,10 @@
         <v>41334</v>
       </c>
       <c r="C47" t="n">
-        <v>0.168639896953405</v>
+        <v>0.1658980806044314</v>
       </c>
       <c r="D47" t="n">
-        <v>0.09235263987417475</v>
+        <v>0.09472653591504163</v>
       </c>
     </row>
     <row r="48">
@@ -1106,10 +1106,10 @@
         <v>41365</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1127483796296296</v>
+        <v>0.1145262131021999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0737791820588159</v>
+        <v>0.07625504825903646</v>
       </c>
     </row>
     <row r="49">
@@ -1123,7 +1123,7 @@
         <v>0.1125207213261649</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09512112857410478</v>
+        <v>0.09604330706403985</v>
       </c>
     </row>
     <row r="50">
@@ -1137,7 +1137,7 @@
         <v>0.1394949027310138</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1480526711265897</v>
+        <v>0.1475025535640781</v>
       </c>
     </row>
     <row r="51">
@@ -1148,10 +1148,10 @@
         <v>41456</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2550919270833333</v>
+        <v>0.2549674479166667</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1991407765441397</v>
+        <v>0.1985571348884741</v>
       </c>
     </row>
     <row r="52">
@@ -1162,10 +1162,10 @@
         <v>41487</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2626581541218638</v>
+        <v>0.2625337141577061</v>
       </c>
       <c r="D52" t="n">
-        <v>0.218037283875252</v>
+        <v>0.21850625541119</v>
       </c>
     </row>
     <row r="53">
@@ -1179,7 +1179,7 @@
         <v>0.171709375</v>
       </c>
       <c r="D53" t="n">
-        <v>0.202253487739064</v>
+        <v>0.2032509086741407</v>
       </c>
     </row>
     <row r="54">
@@ -1190,10 +1190,10 @@
         <v>41548</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1498430925033747</v>
+        <v>0.1496841543313318</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1752360601933294</v>
+        <v>0.1751257753197855</v>
       </c>
     </row>
     <row r="55">
@@ -1207,7 +1207,7 @@
         <v>0.170453125</v>
       </c>
       <c r="D55" t="n">
-        <v>0.160850791031035</v>
+        <v>0.1586475573838314</v>
       </c>
     </row>
     <row r="56">
@@ -1218,10 +1218,10 @@
         <v>41609</v>
       </c>
       <c r="C56" t="n">
-        <v>0.04921908602150538</v>
+        <v>0.05001638019984794</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1603449505473498</v>
+        <v>0.1569450692553663</v>
       </c>
     </row>
     <row r="57">
@@ -1232,10 +1232,10 @@
         <v>41640</v>
       </c>
       <c r="C57" t="n">
-        <v>0.09443279569892474</v>
+        <v>0.09454424283154121</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1546040092003169</v>
+        <v>0.1521873019256579</v>
       </c>
     </row>
     <row r="58">
@@ -1246,10 +1246,10 @@
         <v>41671</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0652858382936508</v>
+        <v>0.06614982315389924</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1285071032256345</v>
+        <v>0.1286283335182202</v>
       </c>
     </row>
     <row r="59">
@@ -1260,10 +1260,10 @@
         <v>41699</v>
       </c>
       <c r="C59" t="n">
-        <v>0.02431283602150537</v>
+        <v>0.02881059549001067</v>
       </c>
       <c r="D59" t="n">
-        <v>0.09162147600244697</v>
+        <v>0.09382711486802381</v>
       </c>
     </row>
     <row r="60">
@@ -1277,7 +1277,7 @@
         <v>0.08162175925925926</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07304801818708784</v>
+        <v>0.07535562721201841</v>
       </c>
     </row>
     <row r="61">
@@ -1288,10 +1288,10 @@
         <v>41760</v>
       </c>
       <c r="C61" t="n">
-        <v>0.05785058243727598</v>
+        <v>0.05802184139784947</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09438996470237671</v>
+        <v>0.09514388601702177</v>
       </c>
     </row>
     <row r="62">
@@ -1305,7 +1305,7 @@
         <v>0.1064633333333333</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1473215072548612</v>
+        <v>0.1466031325170597</v>
       </c>
     </row>
     <row r="63">
@@ -1316,10 +1316,10 @@
         <v>41821</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2137394873271889</v>
+        <v>0.2136932283666155</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1984096126724116</v>
+        <v>0.197657713841456</v>
       </c>
     </row>
     <row r="64">
@@ -1330,10 +1330,10 @@
         <v>41852</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2613553987455197</v>
+        <v>0.2611818996415771</v>
       </c>
       <c r="D64" t="n">
-        <v>0.217306120003524</v>
+        <v>0.217606834364172</v>
       </c>
     </row>
     <row r="65">
@@ -1344,10 +1344,10 @@
         <v>41883</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2401813657407407</v>
+        <v>0.239765162037037</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2015223238673358</v>
+        <v>0.2023514876271225</v>
       </c>
     </row>
     <row r="66">
@@ -1358,10 +1358,10 @@
         <v>41913</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1613916933760684</v>
+        <v>0.1613636841168091</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1745048963216016</v>
+        <v>0.1742263542727676</v>
       </c>
     </row>
     <row r="67">
@@ -1372,10 +1372,10 @@
         <v>41944</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1984459490740741</v>
+        <v>0.1983635416666667</v>
       </c>
       <c r="D67" t="n">
-        <v>0.160119627159307</v>
+        <v>0.1577481363368134</v>
       </c>
     </row>
     <row r="68">
@@ -1386,10 +1386,10 @@
         <v>41974</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1796706989247312</v>
+        <v>0.1793393573710456</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1596137866756217</v>
+        <v>0.1560456482083483</v>
       </c>
     </row>
     <row r="69">
@@ -1403,7 +1403,7 @@
         <v>0.1317060931899642</v>
       </c>
       <c r="D69" t="n">
-        <v>0.153872845328589</v>
+        <v>0.1512878808786399</v>
       </c>
     </row>
     <row r="70">
@@ -1414,10 +1414,10 @@
         <v>42036</v>
       </c>
       <c r="C70" t="n">
-        <v>0.181641212689786</v>
+        <v>0.1700443547796809</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1277759393539062</v>
+        <v>0.1277289124712019</v>
       </c>
     </row>
     <row r="71">
@@ -1428,10 +1428,10 @@
         <v>42064</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07805006587615283</v>
+        <v>0.0791419370523508</v>
       </c>
       <c r="D71" t="n">
-        <v>0.09089031213071894</v>
+        <v>0.0929276938210058</v>
       </c>
     </row>
     <row r="72">
@@ -1445,7 +1445,7 @@
         <v>0.08701238425925925</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07231685431535981</v>
+        <v>0.07445620616500037</v>
       </c>
     </row>
     <row r="73">
@@ -1459,7 +1459,7 @@
         <v>0.1428922491039427</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09365880083064893</v>
+        <v>0.09424446497000397</v>
       </c>
     </row>
     <row r="74">
@@ -1473,7 +1473,7 @@
         <v>0.1513394675925926</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1465903433831336</v>
+        <v>0.145703711470042</v>
       </c>
     </row>
     <row r="75">
@@ -1484,10 +1484,10 @@
         <v>42186</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2131855958781362</v>
+        <v>0.2131568100358423</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1976784488006833</v>
+        <v>0.1967582927944377</v>
       </c>
     </row>
     <row r="76">
@@ -1501,7 +1501,7 @@
         <v>0.213634520609319</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2165749561317959</v>
+        <v>0.2167074133171539</v>
       </c>
     </row>
     <row r="77">
@@ -1512,10 +1512,10 @@
         <v>42248</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2242728009259259</v>
+        <v>0.2242349537037037</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2007911599956078</v>
+        <v>0.2014520665801044</v>
       </c>
     </row>
     <row r="78">
@@ -1526,10 +1526,10 @@
         <v>42278</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2209162186379928</v>
+        <v>0.2194870923796539</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1737737324498736</v>
+        <v>0.1733269332257496</v>
       </c>
     </row>
     <row r="79">
@@ -1540,10 +1540,10 @@
         <v>42309</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1800165509259259</v>
+        <v>0.1799653935185185</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1593884632875789</v>
+        <v>0.1568487152897954</v>
       </c>
     </row>
     <row r="80">
@@ -1557,7 +1557,7 @@
         <v>0.1372262318121693</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1588826228038937</v>
+        <v>0.1551462271613302</v>
       </c>
     </row>
     <row r="81">
@@ -1568,10 +1568,10 @@
         <v>42370</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1906743951612903</v>
+        <v>0.1900576938742261</v>
       </c>
       <c r="D81" t="n">
-        <v>0.153141681456861</v>
+        <v>0.1503884598316219</v>
       </c>
     </row>
     <row r="82">
@@ -1585,7 +1585,7 @@
         <v>0.1388128331667499</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1270447754821782</v>
+        <v>0.1268294914241839</v>
       </c>
     </row>
     <row r="83">
@@ -1599,7 +1599,7 @@
         <v>0.1658506269592477</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09015914825899091</v>
+        <v>0.09202827277398776</v>
       </c>
     </row>
     <row r="84">
@@ -1613,7 +1613,7 @@
         <v>0.1417033333333333</v>
       </c>
       <c r="D84" t="n">
-        <v>0.07158569044363181</v>
+        <v>0.07355678511798233</v>
       </c>
     </row>
     <row r="85">
@@ -1624,10 +1624,10 @@
         <v>42491</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1087278545826933</v>
+        <v>0.1087554083461341</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0929276369589209</v>
+        <v>0.09334504392298591</v>
       </c>
     </row>
     <row r="86">
@@ -1641,7 +1641,7 @@
         <v>0.15418125</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1458591795114055</v>
+        <v>0.1448042904230239</v>
       </c>
     </row>
     <row r="87">
@@ -1655,7 +1655,7 @@
         <v>0.2163965053763441</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1969472849289558</v>
+        <v>0.1958588717474202</v>
       </c>
     </row>
     <row r="88">
@@ -1666,10 +1666,10 @@
         <v>42583</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2356232078853047</v>
+        <v>0.2355206093189964</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2158437922600679</v>
+        <v>0.2158079922701359</v>
       </c>
     </row>
     <row r="89">
@@ -1680,10 +1680,10 @@
         <v>42614</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1821923611111111</v>
+        <v>0.1821454861111111</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2000599961238801</v>
+        <v>0.2005526455330867</v>
       </c>
     </row>
     <row r="90">
@@ -1694,10 +1694,10 @@
         <v>42644</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1347455197132617</v>
+        <v>0.1348493503584229</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1730425685781455</v>
+        <v>0.1724275121787316</v>
       </c>
     </row>
     <row r="91">
@@ -1708,10 +1708,10 @@
         <v>42675</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1289702546296296</v>
+        <v>0.1282236911689357</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1586572994158509</v>
+        <v>0.1559492942427773</v>
       </c>
     </row>
     <row r="92">
@@ -1722,10 +1722,10 @@
         <v>42705</v>
       </c>
       <c r="C92" t="n">
-        <v>0.03551881720430108</v>
+        <v>0.03582672491039426</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1581514589321656</v>
+        <v>0.1542468061143122</v>
       </c>
     </row>
     <row r="93">
@@ -1736,10 +1736,10 @@
         <v>42736</v>
       </c>
       <c r="C93" t="n">
-        <v>0.06002374551971326</v>
+        <v>0.06043458781362007</v>
       </c>
       <c r="D93" t="n">
-        <v>0.152410517585133</v>
+        <v>0.1494890387846038</v>
       </c>
     </row>
     <row r="94">
@@ -1750,10 +1750,10 @@
         <v>42767</v>
       </c>
       <c r="C94" t="n">
-        <v>0.002566220238095237</v>
+        <v>0.00302703373015873</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1263136116104507</v>
+        <v>0.1259300703771664</v>
       </c>
     </row>
     <row r="95">
@@ -1764,10 +1764,10 @@
         <v>42795</v>
       </c>
       <c r="C95" t="n">
-        <v>0.03457302867383513</v>
+        <v>0.03523062275985663</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0894279843872629</v>
+        <v>0.09112885172696975</v>
       </c>
     </row>
     <row r="96">
@@ -1778,10 +1778,10 @@
         <v>42826</v>
       </c>
       <c r="C96" t="n">
-        <v>0.00775011574074074</v>
+        <v>0.008567592592592592</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07085452657190375</v>
+        <v>0.07265736407096429</v>
       </c>
     </row>
     <row r="97">
@@ -1792,10 +1792,10 @@
         <v>42856</v>
       </c>
       <c r="C97" t="n">
-        <v>0.08731070788530466</v>
+        <v>0.08738037634408602</v>
       </c>
       <c r="D97" t="n">
-        <v>0.09219647308719282</v>
+        <v>0.09244562287596785</v>
       </c>
     </row>
     <row r="98">
@@ -1809,7 +1809,7 @@
         <v>0.08874189814814816</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1451280156396774</v>
+        <v>0.1439048693760059</v>
       </c>
     </row>
     <row r="99">
@@ -1823,7 +1823,7 @@
         <v>0.1924228270609319</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1962161210572272</v>
+        <v>0.1949594507004015</v>
       </c>
     </row>
     <row r="100">
@@ -1834,10 +1834,10 @@
         <v>42948</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2156200716845878</v>
+        <v>0.2153421818996416</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2151126283883399</v>
+        <v>0.2149085712231179</v>
       </c>
     </row>
     <row r="101">
@@ -1851,7 +1851,7 @@
         <v>0.1585284722222222</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1993288322521517</v>
+        <v>0.1996532244860684</v>
       </c>
     </row>
     <row r="102">
@@ -1862,10 +1862,10 @@
         <v>43009</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1427626568100359</v>
+        <v>0.1429407482078853</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1723114047064172</v>
+        <v>0.1715280911317132</v>
       </c>
     </row>
     <row r="103">
@@ -1879,7 +1879,7 @@
         <v>0.1454278935185185</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1579261355441229</v>
+        <v>0.1550498731957593</v>
       </c>
     </row>
     <row r="104">
@@ -1890,10 +1890,10 @@
         <v>43070</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1039689740143369</v>
+        <v>0.1039367159498208</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1574202950604376</v>
+        <v>0.1533473850672941</v>
       </c>
     </row>
     <row r="105">
@@ -1904,10 +1904,10 @@
         <v>43101</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1731355286738351</v>
+        <v>0.172997311827957</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1516793537134049</v>
+        <v>0.1485896177375858</v>
       </c>
     </row>
     <row r="106">
@@ -1918,10 +1918,10 @@
         <v>43132</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1025678323412698</v>
+        <v>0.1026693948412698</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1255824477387222</v>
+        <v>0.1250306493301478</v>
       </c>
     </row>
     <row r="107">
@@ -1932,10 +1932,10 @@
         <v>43160</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2228379256272401</v>
+        <v>0.2225921283309958</v>
       </c>
       <c r="D107" t="n">
-        <v>0.08869682051553446</v>
+        <v>0.09022943067995129</v>
       </c>
     </row>
     <row r="108">
@@ -1949,7 +1949,7 @@
         <v>0.1061113425925926</v>
       </c>
       <c r="D108" t="n">
-        <v>0.07012336270017572</v>
+        <v>0.07175794302394624</v>
       </c>
     </row>
     <row r="109">
@@ -1963,7 +1963,7 @@
         <v>0.1470942202909682</v>
       </c>
       <c r="D109" t="n">
-        <v>0.09146530921546422</v>
+        <v>0.09154620182894924</v>
       </c>
     </row>
     <row r="110">
@@ -1977,7 +1977,7 @@
         <v>0.1426148148148148</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1443968517679494</v>
+        <v>0.1430054483289878</v>
       </c>
     </row>
     <row r="111">
@@ -1991,7 +1991,7 @@
         <v>0.2007421594982079</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1954849571854992</v>
+        <v>0.1940600296533835</v>
       </c>
     </row>
     <row r="112">
@@ -2002,10 +2002,10 @@
         <v>43313</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2291682347670251</v>
+        <v>0.2291265681003584</v>
       </c>
       <c r="D112" t="n">
-        <v>0.2143814645166118</v>
+        <v>0.2140091501760998</v>
       </c>
     </row>
     <row r="113">
@@ -2019,7 +2019,7 @@
         <v>0.208187037037037</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1985976683804237</v>
+        <v>0.1987538034390503</v>
       </c>
     </row>
     <row r="114">
@@ -2033,7 +2033,7 @@
         <v>0.132769348020882</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1715802408346895</v>
+        <v>0.1706286700846955</v>
       </c>
     </row>
     <row r="115">
@@ -2047,7 +2047,7 @@
         <v>0.1751751895464305</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1571949716723949</v>
+        <v>0.1541504521487412</v>
       </c>
     </row>
     <row r="116">
@@ -2058,10 +2058,10 @@
         <v>43435</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2694356649418448</v>
+        <v>0.2372591345098138</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1566891311887096</v>
+        <v>0.1524479640202761</v>
       </c>
     </row>
     <row r="117">
@@ -2072,10 +2072,10 @@
         <v>43466</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2206912205387205</v>
+        <v>0.2184614605379189</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1509481898416767</v>
+        <v>0.1476901966905676</v>
       </c>
     </row>
     <row r="118">
@@ -2086,10 +2086,10 @@
         <v>43497</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1475142609126984</v>
+        <v>0.1470858242753623</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1248512838669942</v>
+        <v>0.1241312282831299</v>
       </c>
     </row>
     <row r="119">
@@ -2103,7 +2103,7 @@
         <v>0.07701534498207885</v>
       </c>
       <c r="D119" t="n">
-        <v>0.08796565664380689</v>
+        <v>0.08933000963293367</v>
       </c>
     </row>
     <row r="120">
@@ -2117,7 +2117,7 @@
         <v>0.1152518518518519</v>
       </c>
       <c r="D120" t="n">
-        <v>0.06939219882844769</v>
+        <v>0.07085852197692818</v>
       </c>
     </row>
     <row r="121">
@@ -2131,7 +2131,7 @@
         <v>0.07863418458781361</v>
       </c>
       <c r="D121" t="n">
-        <v>0.09073414534373617</v>
+        <v>0.09064678078193118</v>
       </c>
     </row>
     <row r="122">
@@ -2145,7 +2145,7 @@
         <v>0.09639836805555556</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1436656878962206</v>
+        <v>0.1421060272819689</v>
       </c>
     </row>
     <row r="123">
@@ -2159,7 +2159,7 @@
         <v>0.1651818576388889</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1947537933137717</v>
+        <v>0.193160608606366</v>
       </c>
     </row>
   </sheetData>
